--- a/tests/input/table05.xlsx
+++ b/tests/input/table05.xlsx
@@ -11,6 +11,42 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,10 +80,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -68,19 +103,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F16"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +467,12 @@
     <col min="3" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -452,19 +486,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>